--- a/sdvx/ref/sdvx_controller_coordinate.xlsx
+++ b/sdvx/ref/sdvx_controller_coordinate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hndada\Documents\GitHub\ugrp\sdvx\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50897728-4B03-4627-9143-42631856742E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E1B0E-D0ED-4071-8EF9-B0EF23945F9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{FABC76EB-2655-43AF-A0E6-E892DBD8A6DB}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="1.02" sheetId="2" r:id="rId6"/>
     <sheet name="1.00~1.01" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>FX-R</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>with coordinate multiplier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divisor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approximation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노브 높이 보너스)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1101,20 +1113,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AADEB7-B4FC-4944-BC76-EAA8096E06AA}">
-  <dimension ref="C3:AB19"/>
+  <dimension ref="B3:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="6.25" customWidth="1"/>
+    <col min="3" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="6.25" customWidth="1"/>
     <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
@@ -1320,7 +1334,7 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
-        <f t="shared" ref="E10:J10" si="0">R10-2047</f>
+        <f t="shared" ref="F10:J10" si="0">R10-2047</f>
         <v>-243</v>
       </c>
       <c r="G10" s="10"/>
@@ -1581,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1603,9 +1617,359 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>-729</v>
+      </c>
+      <c r="E28">
+        <v>-243</v>
+      </c>
+      <c r="F28">
+        <v>243</v>
+      </c>
+      <c r="G28">
+        <v>729</v>
+      </c>
+      <c r="H28">
+        <v>-481</v>
+      </c>
+      <c r="I28">
+        <v>481</v>
+      </c>
+      <c r="J28">
+        <v>-1133</v>
+      </c>
+      <c r="K28">
+        <v>1133</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <v>162</v>
+      </c>
+      <c r="F29">
+        <v>162</v>
+      </c>
+      <c r="G29">
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>-326</v>
+      </c>
+      <c r="I29">
+        <v>-326</v>
+      </c>
+      <c r="J29">
+        <v>598</v>
+      </c>
+      <c r="K29">
+        <v>598</v>
+      </c>
+      <c r="L29">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <f>D28/81</f>
+        <v>-9</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:L32" si="3">E28/81</f>
+        <v>-3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-5.9382716049382713</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>5.9382716049382713</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>-13.987654320987655</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>13.987654320987655</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f>D29/81</f>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>-4.0246913580246915</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>-4.0246913580246915</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>7.382716049382716</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>7.382716049382716</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>8.0246913580246915</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33">
+        <v>54</v>
+      </c>
+      <c r="O33">
+        <v>-13.5</v>
+      </c>
+      <c r="P33">
+        <v>-4.5</v>
+      </c>
+      <c r="Q33">
+        <v>4.5</v>
+      </c>
+      <c r="R33">
+        <v>13.5</v>
+      </c>
+      <c r="S33">
+        <v>-9</v>
+      </c>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>-21</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>-6</v>
+      </c>
+      <c r="T34">
+        <v>-6</v>
+      </c>
+      <c r="U34">
+        <v>11</v>
+      </c>
+      <c r="V34">
+        <v>11</v>
+      </c>
+      <c r="W34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>-9</v>
+      </c>
+      <c r="E35">
+        <v>-3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>-6</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>-14</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>-4</v>
+      </c>
+      <c r="I36">
+        <v>-4</v>
+      </c>
+      <c r="J36">
+        <v>7.5</v>
+      </c>
+      <c r="K36">
+        <v>7.5</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f>D28/(D35*81)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:L38" si="4">E28/(E35*81)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>0.98971193415637859</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.98971193415637859</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.99911816578483248</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0.99911816578483248</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>D29/(D36*81)</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>1.0061728395061729</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>1.0061728395061729</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.9843621399176955</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0.9843621399176955</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>1.0030864197530864</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3515,7 @@
         <v>573</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I21:I22" si="0">J22-H22</f>
+        <f t="shared" ref="I22" si="0">J22-H22</f>
         <v>121</v>
       </c>
       <c r="J22">
